--- a/biology/Botanique/Pauline_Dy_Phon/Pauline_Dy_Phon.xlsx
+++ b/biology/Botanique/Pauline_Dy_Phon/Pauline_Dy_Phon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pauline Dy Phon (ប៉ូលីន ឌី ផុន) (1933[1] ou 1936[2]-2010) est une botaniste d'origine cambodgienne spécialiste de la flore sud-est asiatique.
-Venue faire ses études en France, elle obtient en 1959 sa licence de Sciences naturelles à la faculté des sciences de Paris. Enseignante et chercheuse à l'Université de Phnom Penh, elle est contrainte en 1975 de cesser toute activité à cause de l'arrivée des Khmers rouges au pouvoir. En 1980 elle parvient à se réfugier en France et travaillera au sein du Laboratoire de botanique du Muséum national d'histoire naturelle. Au sein du même établissement la botaniste a fortement contribué à recenser et classer des plantes du Cambodge et de l'Indochine, qui restent relativement méconnus[1].
-En mai 2010, elle décède des suites d'une maladie[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pauline Dy Phon (ប៉ូលីន ឌី ផុន) (1933 ou 1936-2010) est une botaniste d'origine cambodgienne spécialiste de la flore sud-est asiatique.
+Venue faire ses études en France, elle obtient en 1959 sa licence de Sciences naturelles à la faculté des sciences de Paris. Enseignante et chercheuse à l'Université de Phnom Penh, elle est contrainte en 1975 de cesser toute activité à cause de l'arrivée des Khmers rouges au pouvoir. En 1980 elle parvient à se réfugier en France et travaillera au sein du Laboratoire de botanique du Muséum national d'histoire naturelle. Au sein du même établissement la botaniste a fortement contribué à recenser et classer des plantes du Cambodge et de l'Indochine, qui restent relativement méconnus.
+En mai 2010, elle décède des suites d'une maladie.
 </t>
         </is>
       </c>
